--- a/biology/Botanique/Artemisietea_vulgaris/Artemisietea_vulgaris.xlsx
+++ b/biology/Botanique/Artemisietea_vulgaris/Artemisietea_vulgaris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En phytosociologie, la classe des Artemisietea vulgaris est une végétation rudérale, anthropogène, nitrophile à dominance d’espèces vivaces, eurosibérienne et méditerranéenne.
 </t>
@@ -511,7 +523,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Autorité : W.Lohmeyer, Preising &amp; Tüxen ex von Rochow 1951
 </t>
@@ -542,7 +556,9 @@
           <t>Les espèces caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Buglosse officinale (Anchusa officinalis)
 Linaire commune (Linaria vulgaris)</t>
@@ -573,7 +589,9 @@
           <t>Remarque</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Artemisietea vulgaris n'est pas le nom binominal d'une espèce.
  Portail de la botanique                     </t>
